--- a/Soil Fertility/SoilDataComplete.xlsx
+++ b/Soil Fertility/SoilDataComplete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentp\Documents\GitHub\Rhizosphere-sequencing\Soil Fertility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0B523-9AB9-4D2F-9474-128D5BE63383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C993898-6097-4492-B971-B78475572F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>Buffer pH</t>
-  </si>
-  <si>
-    <t>P (kg/ha)</t>
-  </si>
-  <si>
-    <t>K (kg/ha)</t>
-  </si>
-  <si>
-    <t>Ca (kg/ha)</t>
-  </si>
-  <si>
-    <t>Mg (kg/ha)</t>
-  </si>
-  <si>
-    <t>Zn (kg/ha)</t>
   </si>
   <si>
     <t>Treatment</t>
@@ -301,6 +286,21 @@
   </si>
   <si>
     <t>UK506</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Zn</t>
   </si>
 </sst>
 </file>
@@ -627,13 +627,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122:L241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,39 +656,39 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -718,24 +718,24 @@
         <v>2.3537849999999998</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -765,24 +765,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -812,24 +812,24 @@
         <v>2.0175299999999998</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -859,24 +859,24 @@
         <v>0.44834000000000002</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -906,24 +906,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -953,24 +953,24 @@
         <v>1.0087649999999999</v>
       </c>
       <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1000,24 +1000,24 @@
         <v>2.0175299999999998</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1047,24 +1047,24 @@
         <v>0.89668000000000003</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1094,24 +1094,24 @@
         <v>1.2329349999999999</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1141,24 +1141,24 @@
         <v>0.78459500000000004</v>
       </c>
       <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1188,24 +1188,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1235,24 +1235,24 @@
         <v>0.89668000000000003</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1282,24 +1282,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1329,24 +1329,24 @@
         <v>1.1208499999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1376,24 +1376,24 @@
         <v>2.0175299999999998</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1423,24 +1423,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1470,24 +1470,24 @@
         <v>1.6812750000000001</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1517,24 +1517,24 @@
         <v>0.89668000000000003</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1564,24 +1564,24 @@
         <v>1.2329349999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1611,24 +1611,24 @@
         <v>1.1208499999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1658,24 +1658,24 @@
         <v>1.2329349999999999</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1705,24 +1705,24 @@
         <v>1.0087649999999999</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1752,24 +1752,24 @@
         <v>1.2329349999999999</v>
       </c>
       <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
         <v>23</v>
       </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1799,24 +1799,24 @@
         <v>0.89668000000000003</v>
       </c>
       <c r="M25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
         <v>23</v>
       </c>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1846,24 +1846,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
         <v>23</v>
       </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1893,24 +1893,24 @@
         <v>2.0175299999999998</v>
       </c>
       <c r="M27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1940,24 +1940,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1987,24 +1987,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2034,24 +2034,24 @@
         <v>1.9054450000000001</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2081,24 +2081,24 @@
         <v>0.78459500000000004</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2128,24 +2128,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2175,24 +2175,24 @@
         <v>0.89668000000000003</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2222,24 +2222,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2269,24 +2269,24 @@
         <v>0.67251000000000005</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2316,24 +2316,24 @@
         <v>1.7933600000000001</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2363,24 +2363,24 @@
         <v>1.1208499999999999</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2410,24 +2410,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2457,24 +2457,24 @@
         <v>1.1208499999999999</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2504,24 +2504,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2551,24 +2551,24 @@
         <v>1.0087649999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2598,24 +2598,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2645,24 +2645,24 @@
         <v>1.1208499999999999</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2692,24 +2692,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
         <v>23</v>
       </c>
-      <c r="N44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2739,24 +2739,24 @@
         <v>1.0087649999999999</v>
       </c>
       <c r="M45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" t="s">
         <v>23</v>
       </c>
-      <c r="N45" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2786,24 +2786,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2833,24 +2833,24 @@
         <v>0.78459500000000004</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2880,24 +2880,24 @@
         <v>1.4571050000000001</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2927,24 +2927,24 @@
         <v>0.67251000000000005</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2974,24 +2974,24 @@
         <v>1.7933600000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3021,24 +3021,24 @@
         <v>2.0175299999999998</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3068,24 +3068,24 @@
         <v>1.3450200000000001</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3115,24 +3115,24 @@
         <v>0.56042499999999995</v>
       </c>
       <c r="M53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3162,24 +3162,24 @@
         <v>1.5691900000000001</v>
       </c>
       <c r="M54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3209,24 +3209,24 @@
         <v>0.33625500000000003</v>
       </c>
       <c r="M55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3256,24 +3256,24 @@
         <v>1.6812750000000001</v>
       </c>
       <c r="M56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3303,24 +3303,24 @@
         <v>0.44834000000000002</v>
       </c>
       <c r="M57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3350,24 +3350,24 @@
         <v>3.0262950000000002</v>
       </c>
       <c r="M58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
         <v>23</v>
       </c>
-      <c r="N58" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3397,24 +3397,24 @@
         <v>0.56042499999999995</v>
       </c>
       <c r="M59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" t="s">
         <v>23</v>
       </c>
-      <c r="N59" t="s">
-        <v>27</v>
-      </c>
-      <c r="O59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3444,24 +3444,24 @@
         <v>1.7933600000000001</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3491,24 +3491,24 @@
         <v>0.44834000000000002</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3538,24 +3538,24 @@
         <v>2.6900400000000002</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3585,24 +3585,24 @@
         <v>2.5779550000000002</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3632,24 +3632,24 @@
         <v>2.5779550000000002</v>
       </c>
       <c r="M64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
         <v>23</v>
       </c>
-      <c r="N64" t="s">
-        <v>27</v>
-      </c>
-      <c r="O64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3679,24 +3679,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M65" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
         <v>23</v>
       </c>
-      <c r="N65" t="s">
-        <v>27</v>
-      </c>
-      <c r="O65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3726,24 +3726,24 @@
         <v>3.1383800000000002</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N66" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3773,24 +3773,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3820,24 +3820,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3867,24 +3867,24 @@
         <v>2.9142100000000002</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3914,24 +3914,24 @@
         <v>4.1471450000000001</v>
       </c>
       <c r="M70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3961,24 +3961,24 @@
         <v>4.3713150000000001</v>
       </c>
       <c r="M71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4008,24 +4008,24 @@
         <v>2.6900400000000002</v>
       </c>
       <c r="M72" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N72" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4055,24 +4055,24 @@
         <v>3.2504650000000002</v>
       </c>
       <c r="M73" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N73" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4102,24 +4102,24 @@
         <v>13.67437</v>
       </c>
       <c r="M74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" t="s">
         <v>23</v>
       </c>
-      <c r="N74" t="s">
-        <v>27</v>
-      </c>
-      <c r="O74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4149,24 +4149,24 @@
         <v>15.355645000000001</v>
       </c>
       <c r="M75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" t="s">
         <v>23</v>
       </c>
-      <c r="N75" t="s">
-        <v>27</v>
-      </c>
-      <c r="O75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4196,24 +4196,24 @@
         <v>4.819655</v>
       </c>
       <c r="M76" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4243,24 +4243,24 @@
         <v>5.1559100000000004</v>
       </c>
       <c r="M77" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4290,24 +4290,24 @@
         <v>17.48526</v>
       </c>
       <c r="M78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4337,24 +4337,24 @@
         <v>14.907304999999999</v>
       </c>
       <c r="M79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4384,24 +4384,24 @@
         <v>30.150865</v>
       </c>
       <c r="M80" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N80" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4431,24 +4431,24 @@
         <v>32.616734999999998</v>
       </c>
       <c r="M81" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N81" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4478,24 +4478,24 @@
         <v>4.819655</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N82" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4525,24 +4525,24 @@
         <v>3.4746350000000001</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4572,24 +4572,24 @@
         <v>11.88101</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4619,24 +4619,24 @@
         <v>8.2942900000000002</v>
       </c>
       <c r="M85" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4666,24 +4666,24 @@
         <v>2.6900400000000002</v>
       </c>
       <c r="M86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4713,24 +4713,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M87" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4760,24 +4760,24 @@
         <v>6.7251000000000003</v>
       </c>
       <c r="M88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N88" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4807,24 +4807,24 @@
         <v>5.9405049999999999</v>
       </c>
       <c r="M89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N89" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4854,24 +4854,24 @@
         <v>2.3537849999999998</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4901,24 +4901,24 @@
         <v>1.9054450000000001</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N91" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4948,24 +4948,24 @@
         <v>2.4658699999999998</v>
       </c>
       <c r="M92" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92" t="s">
         <v>23</v>
       </c>
-      <c r="N92" t="s">
-        <v>27</v>
-      </c>
-      <c r="O92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4995,24 +4995,24 @@
         <v>1.9054450000000001</v>
       </c>
       <c r="M93" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93" t="s">
         <v>23</v>
       </c>
-      <c r="N93" t="s">
-        <v>27</v>
-      </c>
-      <c r="O93" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5042,24 +5042,24 @@
         <v>6.1646749999999999</v>
       </c>
       <c r="M94" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N94" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5089,24 +5089,24 @@
         <v>6.1646749999999999</v>
       </c>
       <c r="M95" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N95" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5136,24 +5136,24 @@
         <v>3.0262950000000002</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N96" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5183,24 +5183,24 @@
         <v>2.1296149999999998</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5230,24 +5230,24 @@
         <v>3.2504650000000002</v>
       </c>
       <c r="M98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N98" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5277,24 +5277,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N99" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5324,24 +5324,24 @@
         <v>6.3888449999999999</v>
       </c>
       <c r="M100" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100" t="s">
         <v>23</v>
       </c>
-      <c r="N100" t="s">
-        <v>27</v>
-      </c>
-      <c r="O100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5371,24 +5371,24 @@
         <v>6.2767600000000003</v>
       </c>
       <c r="M101" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101" t="s">
         <v>23</v>
       </c>
-      <c r="N101" t="s">
-        <v>27</v>
-      </c>
-      <c r="O101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5418,24 +5418,24 @@
         <v>2.9142100000000002</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5465,24 +5465,24 @@
         <v>3.2504650000000002</v>
       </c>
       <c r="M103" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5512,24 +5512,24 @@
         <v>4.3713150000000001</v>
       </c>
       <c r="M104" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5559,24 +5559,24 @@
         <v>4.7075699999999996</v>
       </c>
       <c r="M105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N105" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5606,24 +5606,24 @@
         <v>5.7163349999999999</v>
       </c>
       <c r="M106" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N106" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5653,24 +5653,24 @@
         <v>7.2855249999999998</v>
       </c>
       <c r="M107" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N107" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5700,24 +5700,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5747,24 +5747,24 @@
         <v>2.8021250000000002</v>
       </c>
       <c r="M109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O109" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5794,24 +5794,24 @@
         <v>21.07198</v>
       </c>
       <c r="M110" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N110" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5841,24 +5841,24 @@
         <v>23.425764999999998</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N111" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5888,24 +5888,24 @@
         <v>11.096415</v>
       </c>
       <c r="M112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N112" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5935,24 +5935,24 @@
         <v>11.544755</v>
       </c>
       <c r="M113" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N113" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5982,24 +5982,24 @@
         <v>3.1383800000000002</v>
       </c>
       <c r="M114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N114" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -6029,24 +6029,24 @@
         <v>2.5779550000000002</v>
       </c>
       <c r="M115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -6076,24 +6076,24 @@
         <v>25.219124999999998</v>
       </c>
       <c r="M116" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N116" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -6123,24 +6123,24 @@
         <v>27.460825</v>
       </c>
       <c r="M117" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N117" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6170,24 +6170,24 @@
         <v>31.271715</v>
       </c>
       <c r="M118" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" t="s">
+        <v>22</v>
+      </c>
+      <c r="O118" t="s">
         <v>23</v>
       </c>
-      <c r="N118" t="s">
-        <v>27</v>
-      </c>
-      <c r="O118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B119" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6217,24 +6217,24 @@
         <v>35.867199999999997</v>
       </c>
       <c r="M119" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119" t="s">
         <v>23</v>
       </c>
-      <c r="N119" t="s">
-        <v>27</v>
-      </c>
-      <c r="O119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6264,24 +6264,24 @@
         <v>10.648075</v>
       </c>
       <c r="M120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6311,24 +6311,24 @@
         <v>10.872244999999999</v>
       </c>
       <c r="M121" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N121" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1">
         <v>3</v>
@@ -6358,24 +6358,24 @@
         <v>4</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1">
         <v>3</v>
@@ -6405,24 +6405,24 @@
         <v>4</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -6452,24 +6452,24 @@
         <v>3</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -6499,24 +6499,24 @@
         <v>2</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
@@ -6546,24 +6546,24 @@
         <v>3</v>
       </c>
       <c r="M126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D127" s="1">
         <v>3</v>
@@ -6593,24 +6593,24 @@
         <v>2</v>
       </c>
       <c r="M127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N127" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1">
         <v>3</v>
@@ -6640,24 +6640,24 @@
         <v>2</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -6687,24 +6687,24 @@
         <v>1</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
@@ -6734,24 +6734,24 @@
         <v>2</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D131" s="1">
         <v>3</v>
@@ -6781,24 +6781,24 @@
         <v>1</v>
       </c>
       <c r="M131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N131" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
         <v>3</v>
@@ -6828,24 +6828,24 @@
         <v>2</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D133" s="1">
         <v>3</v>
@@ -6875,24 +6875,24 @@
         <v>2</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -6922,24 +6922,24 @@
         <v>3</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1">
         <v>3</v>
@@ -6969,24 +6969,24 @@
         <v>2</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O135" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1">
         <v>3</v>
@@ -7016,24 +7016,24 @@
         <v>3</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1">
         <v>3</v>
@@ -7063,24 +7063,24 @@
         <v>2</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D138" s="1">
         <v>3</v>
@@ -7110,24 +7110,24 @@
         <v>2</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O138" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -7157,24 +7157,24 @@
         <v>2</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1">
         <v>3</v>
@@ -7204,24 +7204,24 @@
         <v>2</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1">
         <v>3</v>
@@ -7251,24 +7251,24 @@
         <v>3</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
         <v>3</v>
@@ -7298,24 +7298,24 @@
         <v>3</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1">
         <v>3</v>
@@ -7345,24 +7345,24 @@
         <v>1</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -7392,24 +7392,24 @@
         <v>2</v>
       </c>
       <c r="M144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N144" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1">
         <v>3</v>
@@ -7439,24 +7439,24 @@
         <v>1</v>
       </c>
       <c r="M145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N145" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1">
         <v>3</v>
@@ -7486,24 +7486,24 @@
         <v>5</v>
       </c>
       <c r="M146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1">
         <v>3</v>
@@ -7533,24 +7533,24 @@
         <v>3</v>
       </c>
       <c r="M147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O147" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1">
         <v>3</v>
@@ -7580,24 +7580,24 @@
         <v>3</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -7627,24 +7627,24 @@
         <v>2</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D150" s="1">
         <v>3</v>
@@ -7674,24 +7674,24 @@
         <v>2</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D151" s="1">
         <v>3</v>
@@ -7721,24 +7721,24 @@
         <v>1</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D152" s="1">
         <v>3</v>
@@ -7768,24 +7768,24 @@
         <v>3</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D153" s="1">
         <v>3</v>
@@ -7815,24 +7815,24 @@
         <v>2</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -7862,24 +7862,24 @@
         <v>2</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D155" s="1">
         <v>3</v>
@@ -7909,24 +7909,24 @@
         <v>1</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D156" s="1">
         <v>3</v>
@@ -7956,24 +7956,24 @@
         <v>2</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D157" s="1">
         <v>3</v>
@@ -8003,24 +8003,24 @@
         <v>1</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D158" s="1">
         <v>3</v>
@@ -8050,24 +8050,24 @@
         <v>4</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1">
         <v>3</v>
@@ -8097,24 +8097,24 @@
         <v>2</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1">
         <v>3</v>
@@ -8144,24 +8144,24 @@
         <v>3</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1">
         <v>3</v>
@@ -8191,24 +8191,24 @@
         <v>2</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D162" s="1">
         <v>3</v>
@@ -8238,24 +8238,24 @@
         <v>2</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1">
         <v>3</v>
@@ -8285,24 +8285,24 @@
         <v>1</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D164" s="1">
         <v>3</v>
@@ -8332,24 +8332,24 @@
         <v>2</v>
       </c>
       <c r="M164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N164" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O164" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1">
         <v>3</v>
@@ -8379,24 +8379,24 @@
         <v>1</v>
       </c>
       <c r="M165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O165" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N165" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1">
         <v>3</v>
@@ -8426,24 +8426,24 @@
         <v>3</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D167" s="1">
         <v>3</v>
@@ -8473,24 +8473,24 @@
         <v>2</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1">
         <v>3</v>
@@ -8520,24 +8520,24 @@
         <v>2</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -8567,24 +8567,24 @@
         <v>3</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D170" s="1">
         <v>3</v>
@@ -8614,24 +8614,24 @@
         <v>2</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -8661,24 +8661,24 @@
         <v>2</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1">
         <v>3</v>
@@ -8708,24 +8708,24 @@
         <v>3</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D173" s="1">
         <v>3</v>
@@ -8755,24 +8755,24 @@
         <v>2</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D174" s="1">
         <v>3</v>
@@ -8802,24 +8802,24 @@
         <v>3</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D175" s="1">
         <v>3</v>
@@ -8849,24 +8849,24 @@
         <v>2</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D176" s="1">
         <v>3</v>
@@ -8896,24 +8896,24 @@
         <v>3</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1">
         <v>3</v>
@@ -8943,24 +8943,24 @@
         <v>2</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D178" s="1">
         <v>3</v>
@@ -8990,24 +8990,24 @@
         <v>2</v>
       </c>
       <c r="M178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O178" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N178" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O178" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -9037,24 +9037,24 @@
         <v>3</v>
       </c>
       <c r="M179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O179" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N179" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O179" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D180" s="1">
         <v>3</v>
@@ -9084,24 +9084,24 @@
         <v>3</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1">
         <v>3</v>
@@ -9131,24 +9131,24 @@
         <v>1</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1">
         <v>3</v>
@@ -9178,24 +9178,24 @@
         <v>4</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D183" s="1">
         <v>3</v>
@@ -9225,24 +9225,24 @@
         <v>3</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -9272,24 +9272,24 @@
         <v>4</v>
       </c>
       <c r="M184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O184" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N184" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O184" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1">
         <v>3</v>
@@ -9319,24 +9319,24 @@
         <v>3</v>
       </c>
       <c r="M185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O185" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N185" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O185" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1">
         <v>3</v>
@@ -9366,24 +9366,24 @@
         <v>5</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D187" s="1">
         <v>3</v>
@@ -9413,24 +9413,24 @@
         <v>4</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1">
         <v>3</v>
@@ -9460,24 +9460,24 @@
         <v>4</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D189" s="1">
         <v>3</v>
@@ -9507,24 +9507,24 @@
         <v>4</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D190" s="1">
         <v>3</v>
@@ -9554,24 +9554,24 @@
         <v>6</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C191" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D191" s="1">
         <v>3</v>
@@ -9601,24 +9601,24 @@
         <v>6</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1">
         <v>3</v>
@@ -9648,24 +9648,24 @@
         <v>4</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1">
         <v>3</v>
@@ -9695,24 +9695,24 @@
         <v>4</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1">
         <v>3</v>
@@ -9742,24 +9742,24 @@
         <v>18</v>
       </c>
       <c r="M194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O194" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N194" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O194" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D195" s="1">
         <v>3</v>
@@ -9789,24 +9789,24 @@
         <v>15</v>
       </c>
       <c r="M195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O195" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N195" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O195" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1">
         <v>3</v>
@@ -9836,24 +9836,24 @@
         <v>6</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D197" s="1">
         <v>3</v>
@@ -9883,24 +9883,24 @@
         <v>8</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D198" s="1">
         <v>3</v>
@@ -9930,24 +9930,24 @@
         <v>17</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -9977,24 +9977,24 @@
         <v>17</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1">
         <v>3</v>
@@ -10024,24 +10024,24 @@
         <v>28</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D201" s="1">
         <v>3</v>
@@ -10071,24 +10071,24 @@
         <v>26</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1">
         <v>3</v>
@@ -10118,24 +10118,24 @@
         <v>7</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D203" s="1">
         <v>3</v>
@@ -10165,24 +10165,24 @@
         <v>6</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
@@ -10212,24 +10212,24 @@
         <v>10</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D205" s="1">
         <v>3</v>
@@ -10259,24 +10259,24 @@
         <v>10</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D206" s="1">
         <v>3</v>
@@ -10306,24 +10306,24 @@
         <v>4</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1">
         <v>3</v>
@@ -10353,24 +10353,24 @@
         <v>4</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
         <v>3</v>
@@ -10400,24 +10400,24 @@
         <v>9</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -10447,24 +10447,24 @@
         <v>10</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D210" s="1">
         <v>3</v>
@@ -10494,24 +10494,24 @@
         <v>4</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D211" s="1">
         <v>3</v>
@@ -10541,24 +10541,24 @@
         <v>4</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1">
         <v>3</v>
@@ -10588,24 +10588,24 @@
         <v>4</v>
       </c>
       <c r="M212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O212" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N212" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1">
         <v>3</v>
@@ -10635,24 +10635,24 @@
         <v>4</v>
       </c>
       <c r="M213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O213" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N213" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1">
         <v>3</v>
@@ -10682,24 +10682,24 @@
         <v>9</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D215" s="1">
         <v>3</v>
@@ -10729,24 +10729,24 @@
         <v>10</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D216" s="1">
         <v>3</v>
@@ -10776,24 +10776,24 @@
         <v>4</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D217" s="1">
         <v>3</v>
@@ -10823,24 +10823,24 @@
         <v>3</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D218" s="1">
         <v>3</v>
@@ -10870,24 +10870,24 @@
         <v>4</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -10917,24 +10917,24 @@
         <v>4</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -10964,24 +10964,24 @@
         <v>9</v>
       </c>
       <c r="M220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O220" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N220" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O220" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1">
         <v>3</v>
@@ -11011,24 +11011,24 @@
         <v>7</v>
       </c>
       <c r="M221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O221" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N221" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O221" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1">
         <v>3</v>
@@ -11058,24 +11058,24 @@
         <v>5</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1">
         <v>3</v>
@@ -11105,24 +11105,24 @@
         <v>3</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -11152,24 +11152,24 @@
         <v>5</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D225" s="1">
         <v>3</v>
@@ -11199,24 +11199,24 @@
         <v>4</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D226" s="1">
         <v>3</v>
@@ -11246,24 +11246,24 @@
         <v>10</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D227" s="1">
         <v>3</v>
@@ -11293,24 +11293,24 @@
         <v>9</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1">
         <v>3</v>
@@ -11340,24 +11340,24 @@
         <v>3</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D229" s="1">
         <v>3</v>
@@ -11387,24 +11387,24 @@
         <v>3</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1">
         <v>3</v>
@@ -11434,24 +11434,24 @@
         <v>23</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D231" s="1">
         <v>3</v>
@@ -11481,24 +11481,24 @@
         <v>25</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>3</v>
@@ -11528,24 +11528,24 @@
         <v>17</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O232" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D233" s="1">
         <v>3</v>
@@ -11575,24 +11575,24 @@
         <v>17</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1">
         <v>3</v>
@@ -11622,24 +11622,24 @@
         <v>4</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D235" s="1">
         <v>3</v>
@@ -11669,24 +11669,24 @@
         <v>4</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D236" s="1">
         <v>3</v>
@@ -11716,24 +11716,24 @@
         <v>18</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D237" s="1">
         <v>3</v>
@@ -11763,24 +11763,24 @@
         <v>16</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1">
         <v>3</v>
@@ -11810,24 +11810,24 @@
         <v>35</v>
       </c>
       <c r="M238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O238" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N238" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D239" s="1">
         <v>3</v>
@@ -11857,24 +11857,24 @@
         <v>36</v>
       </c>
       <c r="M239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O239" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N239" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1">
         <v>3</v>
@@ -11904,24 +11904,24 @@
         <v>9</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D241" s="1">
         <v>3</v>
@@ -11951,13 +11951,13 @@
         <v>10</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
